--- a/Output/Подогреватели, Вакууматоры ВСТР.xlsx
+++ b/Output/Подогреватели, Вакууматоры ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Артикул</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Подогреватели, Вакууматоры</t>
   </si>
   <si>
+    <t>вакууматоры</t>
+  </si>
+  <si>
+    <t>высота ниши шкафа 15 см</t>
+  </si>
+  <si>
     <t>ODV8127S</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>вакууматор</t>
-  </si>
-  <si>
-    <t>высота ниши шкафа 15 см</t>
   </si>
   <si>
     <t>черный</t>
@@ -603,8 +606,12 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
@@ -615,7 +622,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -624,16 +631,20 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
@@ -644,7 +655,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -653,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -661,8 +672,12 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
       <c r="K4" t="s"/>
@@ -673,16 +688,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -691,43 +706,43 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -736,43 +751,43 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -781,43 +796,43 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
         <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -826,43 +841,43 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -871,43 +886,43 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -916,44 +931,44 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -961,43 +976,43 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
         <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1006,43 +1021,43 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
         <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1051,43 +1066,43 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
         <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1096,43 +1111,43 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1141,44 +1156,44 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
         <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
@@ -1186,43 +1201,43 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
         <v>20.5</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1231,43 +1246,43 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
         <v>20.5</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1276,29 +1291,29 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
         <v>20.5</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
